--- a/data/trans_dic/P64D1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D1_R-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1378336671010987</v>
+        <v>0.1339964532946982</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.213606117852776</v>
+        <v>0.2144090307223048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1847147456575343</v>
+        <v>0.1835686331230535</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2557898460513077</v>
+        <v>0.2530859580753398</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3315659083604182</v>
+        <v>0.3313371547684709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2693929202990333</v>
+        <v>0.2682302533811929</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.2110858140787909</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3089378886889368</v>
+        <v>0.3089378886889369</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2506149825363543</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1486425847719887</v>
+        <v>0.1438904756845708</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2472985081614121</v>
+        <v>0.2479159739786701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2078276334809218</v>
+        <v>0.20614581143172</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2800531278484711</v>
+        <v>0.2765618569673683</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3751256214950326</v>
+        <v>0.3689105540217559</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2972863245269438</v>
+        <v>0.3040122287697521</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.2526839426754958</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.4307537483876224</v>
+        <v>0.4307537483876225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.332436551177583</v>
+        <v>0.3324365511775831</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1913778743185605</v>
+        <v>0.1897358389161894</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.351229130707146</v>
+        <v>0.3587108216936907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2832756816770128</v>
+        <v>0.2810751915093363</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.337286156277827</v>
+        <v>0.3263652441243041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5078955724457983</v>
+        <v>0.5156744108431849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3851829760910349</v>
+        <v>0.3850406141729349</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.3447765354907457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2994513884713313</v>
+        <v>0.2994513884713314</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1851011647095444</v>
+        <v>0.1861703003216157</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2701109023073735</v>
+        <v>0.2796868510190734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2497870727672102</v>
+        <v>0.2481039550082147</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3528426073934521</v>
+        <v>0.3537550876845935</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4203710238000855</v>
+        <v>0.4217178505104395</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3551151137914166</v>
+        <v>0.3625749561696811</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.4381578992287861</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5776179363288564</v>
+        <v>0.5776179363288565</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.503272155562258</v>
+        <v>0.5032721555622579</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.363839824448031</v>
+        <v>0.3639763561095241</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5084933442084268</v>
+        <v>0.504166451347123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.457321505013139</v>
+        <v>0.4443651730894689</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5121861068970597</v>
+        <v>0.5159402125706156</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6467203484828975</v>
+        <v>0.6448967477765012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.559991466834669</v>
+        <v>0.5539822817569673</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2906039571800236</v>
+        <v>0.2906039571800237</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.5447193230070236</v>
+        <v>0.544719323007024</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.3900053906953019</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2209982206356291</v>
+        <v>0.2243402419308144</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4532353179418198</v>
+        <v>0.4531098211613849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3335052679361992</v>
+        <v>0.3372974562550546</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3812823672598442</v>
+        <v>0.3637884452998309</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6366729717551435</v>
+        <v>0.6372307150653909</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4486048401878405</v>
+        <v>0.4483536908946359</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08147908625927472</v>
+        <v>0.0822232002534643</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2155200070251994</v>
+        <v>0.2189074057739827</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1560876603582882</v>
+        <v>0.1571059429336735</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1616862646741538</v>
+        <v>0.1610985327133428</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3007350293442481</v>
+        <v>0.304788899763445</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2174965988270798</v>
+        <v>0.2144894239648163</v>
       </c>
     </row>
     <row r="25">
@@ -952,10 +952,10 @@
         <v>0.3135960304497498</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.4697419333287764</v>
+        <v>0.4697419333287765</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.3772846484998222</v>
+        <v>0.3772846484998221</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2642764048363421</v>
+        <v>0.2688419428606756</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4217767655078029</v>
+        <v>0.4183810560074032</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3362560490713521</v>
+        <v>0.3443622971857047</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3612091415671063</v>
+        <v>0.3581151207174836</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5235681887480065</v>
+        <v>0.5231649417979981</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.41124725144223</v>
+        <v>0.411327826017566</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.2440803485889213</v>
+        <v>0.2440803485889212</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.3749903532407272</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.224016769771524</v>
+        <v>0.2225238605193694</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3527085089881352</v>
+        <v>0.3499028627942268</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2874038432269637</v>
+        <v>0.2857924932545799</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2678539731908481</v>
+        <v>0.2662870415472764</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3973483701936252</v>
+        <v>0.3958787381713141</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3183516809033611</v>
+        <v>0.3179448902116055</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27326</v>
+        <v>26565</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32314</v>
+        <v>32436</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>64564</v>
+        <v>64163</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50711</v>
+        <v>50175</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50159</v>
+        <v>50124</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>94162</v>
+        <v>93755</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37274</v>
+        <v>36082</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42030</v>
+        <v>42135</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>87437</v>
+        <v>86729</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>70227</v>
+        <v>69351</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63755</v>
+        <v>62699</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>125074</v>
+        <v>127904</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28382</v>
+        <v>28138</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>42253</v>
+        <v>43153</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>76088</v>
+        <v>75497</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>50020</v>
+        <v>48401</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61099</v>
+        <v>62035</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>103461</v>
+        <v>103422</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38517</v>
+        <v>38740</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48196</v>
+        <v>49905</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>96547</v>
+        <v>95897</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73422</v>
+        <v>73612</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>75007</v>
+        <v>75248</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>137259</v>
+        <v>140142</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>48930</v>
+        <v>48948</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>59891</v>
+        <v>59382</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>115365</v>
+        <v>112097</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>68879</v>
+        <v>69384</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>76172</v>
+        <v>75957</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>141265</v>
+        <v>139749</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>29732</v>
+        <v>30182</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>39176</v>
+        <v>39165</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>73696</v>
+        <v>74534</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>51296</v>
+        <v>48943</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>55032</v>
+        <v>55080</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>99130</v>
+        <v>99074</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>31156</v>
+        <v>31440</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>76823</v>
+        <v>78031</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>115323</v>
+        <v>116075</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>61825</v>
+        <v>61601</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>107199</v>
+        <v>108644</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>160694</v>
+        <v>158472</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>119292</v>
+        <v>121353</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>131146</v>
+        <v>130091</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>256338</v>
+        <v>262517</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>163047</v>
+        <v>161650</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>162797</v>
+        <v>162672</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>313506</v>
+        <v>313567</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>427467</v>
+        <v>424618</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>526093</v>
+        <v>521908</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>977107</v>
+        <v>971629</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>511117</v>
+        <v>508127</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>592676</v>
+        <v>590484</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1082323</v>
+        <v>1080940</v>
       </c>
     </row>
     <row r="40">
